--- a/Tasa de Xenofobia/Tasa Xenofobia-2023.xlsx
+++ b/Tasa de Xenofobia/Tasa Xenofobia-2023.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,13 +435,13 @@
         <v>2022</v>
       </c>
       <c r="E2">
-        <v>759</v>
+        <v>832</v>
       </c>
       <c r="F2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="G2">
-        <v>0.2766798418972332</v>
+        <v>0.2175480769230769</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,13 +458,13 @@
         <v>2023</v>
       </c>
       <c r="E3">
-        <v>6865</v>
+        <v>8620</v>
       </c>
       <c r="F3">
-        <v>1460</v>
+        <v>1470</v>
       </c>
       <c r="G3">
-        <v>0.2126729788783685</v>
+        <v>0.1705336426914153</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>2023</v>
       </c>
       <c r="E4">
-        <v>9636</v>
+        <v>11961</v>
       </c>
       <c r="F4">
-        <v>1573</v>
+        <v>1590</v>
       </c>
       <c r="G4">
-        <v>0.1632420091324201</v>
+        <v>0.1329320290945573</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,13 +504,13 @@
         <v>2023</v>
       </c>
       <c r="E5">
-        <v>6484</v>
+        <v>9749</v>
       </c>
       <c r="F5">
-        <v>1238</v>
+        <v>1408</v>
       </c>
       <c r="G5">
-        <v>0.1909315237507711</v>
+        <v>0.1444250692378705</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -527,13 +527,13 @@
         <v>2023</v>
       </c>
       <c r="E6">
-        <v>8995</v>
+        <v>13503</v>
       </c>
       <c r="F6">
-        <v>701</v>
+        <v>1159</v>
       </c>
       <c r="G6">
-        <v>0.07793218454697054</v>
+        <v>0.08583277790120714</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -550,13 +550,13 @@
         <v>2023</v>
       </c>
       <c r="E7">
-        <v>7250</v>
+        <v>10419</v>
       </c>
       <c r="F7">
-        <v>1002</v>
+        <v>1127</v>
       </c>
       <c r="G7">
-        <v>0.1382068965517241</v>
+        <v>0.108167770419426</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -573,13 +573,13 @@
         <v>2023</v>
       </c>
       <c r="E8">
-        <v>7676</v>
+        <v>10817</v>
       </c>
       <c r="F8">
-        <v>1018</v>
+        <v>1066</v>
       </c>
       <c r="G8">
-        <v>0.1326211568525273</v>
+        <v>0.09854858093741332</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -596,13 +596,13 @@
         <v>2023</v>
       </c>
       <c r="E9">
-        <v>9964</v>
+        <v>10228</v>
       </c>
       <c r="F9">
-        <v>1254</v>
+        <v>1314</v>
       </c>
       <c r="G9">
-        <v>0.1258530710558009</v>
+        <v>0.1284708642940947</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -619,13 +619,13 @@
         <v>2023</v>
       </c>
       <c r="E10">
-        <v>9104</v>
+        <v>11074</v>
       </c>
       <c r="F10">
-        <v>979</v>
+        <v>1011</v>
       </c>
       <c r="G10">
-        <v>0.1075351493848858</v>
+        <v>0.09129492504966588</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -642,13 +642,13 @@
         <v>2023</v>
       </c>
       <c r="E11">
-        <v>8031</v>
+        <v>11838</v>
       </c>
       <c r="F11">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="G11">
-        <v>0.1450628813348275</v>
+        <v>0.09714478797094103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -665,13 +665,13 @@
         <v>2023</v>
       </c>
       <c r="E12">
-        <v>7846</v>
+        <v>10412</v>
       </c>
       <c r="F12">
-        <v>1474</v>
+        <v>1537</v>
       </c>
       <c r="G12">
-        <v>0.187866428753505</v>
+        <v>0.1476181329235497</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -688,13 +688,13 @@
         <v>2023</v>
       </c>
       <c r="E13">
-        <v>8280</v>
+        <v>12839</v>
       </c>
       <c r="F13">
-        <v>1811</v>
+        <v>1818</v>
       </c>
       <c r="G13">
-        <v>0.218719806763285</v>
+        <v>0.1415998130695537</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -711,13 +711,13 @@
         <v>2023</v>
       </c>
       <c r="E14">
-        <v>9982</v>
+        <v>9033</v>
       </c>
       <c r="F14">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G14">
-        <v>0.09106391504708475</v>
+        <v>0.100852429978966</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -734,13 +734,13 @@
         <v>2023</v>
       </c>
       <c r="E15">
-        <v>16897</v>
+        <v>20430</v>
       </c>
       <c r="F15">
-        <v>2192</v>
+        <v>2415</v>
       </c>
       <c r="G15">
-        <v>0.1297271705036397</v>
+        <v>0.118208516886931</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -757,13 +757,13 @@
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>8358</v>
+        <v>10397</v>
       </c>
       <c r="F16">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="G16">
-        <v>0.1054079923426657</v>
+        <v>0.0858901606232567</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -780,13 +780,13 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>7229</v>
+        <v>9352</v>
       </c>
       <c r="F17">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="G17">
-        <v>0.1339051044404482</v>
+        <v>0.1039349871685201</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -803,13 +803,13 @@
         <v>2023</v>
       </c>
       <c r="E18">
-        <v>8312</v>
+        <v>9533</v>
       </c>
       <c r="F18">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="G18">
-        <v>0.0933589990375361</v>
+        <v>0.08234553655722228</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -826,13 +826,13 @@
         <v>2023</v>
       </c>
       <c r="E19">
-        <v>12650</v>
+        <v>13858</v>
       </c>
       <c r="F19">
-        <v>1155</v>
+        <v>1265</v>
       </c>
       <c r="G19">
-        <v>0.09130434782608696</v>
+        <v>0.09128301342185019</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -849,13 +849,13 @@
         <v>2023</v>
       </c>
       <c r="E20">
-        <v>7779</v>
+        <v>8778</v>
       </c>
       <c r="F20">
-        <v>1030</v>
+        <v>821</v>
       </c>
       <c r="G20">
-        <v>0.1324077644941509</v>
+        <v>0.09352927773980406</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -872,13 +872,13 @@
         <v>2023</v>
       </c>
       <c r="E21">
-        <v>7481</v>
+        <v>9570</v>
       </c>
       <c r="F21">
-        <v>829</v>
+        <v>767</v>
       </c>
       <c r="G21">
-        <v>0.1108140622911375</v>
+        <v>0.08014629049111807</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -895,13 +895,13 @@
         <v>2023</v>
       </c>
       <c r="E22">
-        <v>6220</v>
+        <v>8137</v>
       </c>
       <c r="F22">
-        <v>675</v>
+        <v>698</v>
       </c>
       <c r="G22">
-        <v>0.1085209003215434</v>
+        <v>0.08578100036868624</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -918,13 +918,13 @@
         <v>2023</v>
       </c>
       <c r="E23">
-        <v>5439</v>
+        <v>7494</v>
       </c>
       <c r="F23">
-        <v>691</v>
+        <v>768</v>
       </c>
       <c r="G23">
-        <v>0.1270454127596985</v>
+        <v>0.1024819855884708</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -941,13 +941,13 @@
         <v>2023</v>
       </c>
       <c r="E24">
-        <v>7622</v>
+        <v>10973</v>
       </c>
       <c r="F24">
-        <v>924</v>
+        <v>985</v>
       </c>
       <c r="G24">
-        <v>0.1212280241406455</v>
+        <v>0.0897657887542149</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -964,13 +964,13 @@
         <v>2023</v>
       </c>
       <c r="E25">
-        <v>8327</v>
+        <v>10555</v>
       </c>
       <c r="F25">
-        <v>908</v>
+        <v>1130</v>
       </c>
       <c r="G25">
-        <v>0.1090428725831632</v>
+        <v>0.1070582662245381</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -987,13 +987,13 @@
         <v>2023</v>
       </c>
       <c r="E26">
-        <v>6181</v>
+        <v>8196</v>
       </c>
       <c r="F26">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="G26">
-        <v>0.1150299304319689</v>
+        <v>0.08784773060029283</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1010,13 +1010,13 @@
         <v>2023</v>
       </c>
       <c r="E27">
-        <v>9313</v>
+        <v>11524</v>
       </c>
       <c r="F27">
-        <v>903</v>
+        <v>947</v>
       </c>
       <c r="G27">
-        <v>0.0969612369805648</v>
+        <v>0.08217632766400555</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1033,13 +1033,519 @@
         <v>2023</v>
       </c>
       <c r="E28">
-        <v>8362</v>
+        <v>12048</v>
       </c>
       <c r="F28">
-        <v>2372</v>
+        <v>2439</v>
       </c>
       <c r="G28">
-        <v>0.28366419516862</v>
+        <v>0.2024402390438247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45110.20833333334</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2023</v>
+      </c>
+      <c r="E29">
+        <v>12252</v>
+      </c>
+      <c r="F29">
+        <v>890</v>
+      </c>
+      <c r="G29">
+        <v>0.07264120143650016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45117.20833333334</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>2023</v>
+      </c>
+      <c r="E30">
+        <v>13252</v>
+      </c>
+      <c r="F30">
+        <v>1403</v>
+      </c>
+      <c r="G30">
+        <v>0.1058708119529128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45124.20833333334</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>2023</v>
+      </c>
+      <c r="E31">
+        <v>12339</v>
+      </c>
+      <c r="F31">
+        <v>869</v>
+      </c>
+      <c r="G31">
+        <v>0.07042710106167437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45131.20833333334</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>2023</v>
+      </c>
+      <c r="E32">
+        <v>8498</v>
+      </c>
+      <c r="F32">
+        <v>961</v>
+      </c>
+      <c r="G32">
+        <v>0.1130854318663215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45138.20833333334</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2023</v>
+      </c>
+      <c r="E33">
+        <v>8040</v>
+      </c>
+      <c r="F33">
+        <v>829</v>
+      </c>
+      <c r="G33">
+        <v>0.1031094527363184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45145.20833333334</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>2023</v>
+      </c>
+      <c r="E34">
+        <v>8245</v>
+      </c>
+      <c r="F34">
+        <v>925</v>
+      </c>
+      <c r="G34">
+        <v>0.1121892055791389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45152.20833333334</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>2023</v>
+      </c>
+      <c r="E35">
+        <v>8037</v>
+      </c>
+      <c r="F35">
+        <v>1746</v>
+      </c>
+      <c r="G35">
+        <v>0.2172452407614782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45159.20833333334</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>2023</v>
+      </c>
+      <c r="E36">
+        <v>6733</v>
+      </c>
+      <c r="F36">
+        <v>884</v>
+      </c>
+      <c r="G36">
+        <v>0.1312936283974454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45166.20833333334</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>2023</v>
+      </c>
+      <c r="E37">
+        <v>8248</v>
+      </c>
+      <c r="F37">
+        <v>782</v>
+      </c>
+      <c r="G37">
+        <v>0.09481086323957323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45173.20833333334</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>2023</v>
+      </c>
+      <c r="E38">
+        <v>12318</v>
+      </c>
+      <c r="F38">
+        <v>2342</v>
+      </c>
+      <c r="G38">
+        <v>0.1901282675759052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45180.20833333334</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>2023</v>
+      </c>
+      <c r="E39">
+        <v>10364</v>
+      </c>
+      <c r="F39">
+        <v>1256</v>
+      </c>
+      <c r="G39">
+        <v>0.1211887302199923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45187.20833333334</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>2023</v>
+      </c>
+      <c r="E40">
+        <v>13713</v>
+      </c>
+      <c r="F40">
+        <v>3325</v>
+      </c>
+      <c r="G40">
+        <v>0.2424706482899439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45194.20833333334</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>2023</v>
+      </c>
+      <c r="E41">
+        <v>9972</v>
+      </c>
+      <c r="F41">
+        <v>1928</v>
+      </c>
+      <c r="G41">
+        <v>0.1933413557962294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45201.20833333334</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>2023</v>
+      </c>
+      <c r="E42">
+        <v>12425</v>
+      </c>
+      <c r="F42">
+        <v>1894</v>
+      </c>
+      <c r="G42">
+        <v>0.1524346076458752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45208.20833333334</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>2023</v>
+      </c>
+      <c r="E43">
+        <v>8435</v>
+      </c>
+      <c r="F43">
+        <v>1097</v>
+      </c>
+      <c r="G43">
+        <v>0.1300533491404861</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45215.20833333334</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>2023</v>
+      </c>
+      <c r="E44">
+        <v>12793</v>
+      </c>
+      <c r="F44">
+        <v>1162</v>
+      </c>
+      <c r="G44">
+        <v>0.09083092316110374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45222.20833333334</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>2023</v>
+      </c>
+      <c r="E45">
+        <v>10386</v>
+      </c>
+      <c r="F45">
+        <v>1093</v>
+      </c>
+      <c r="G45">
+        <v>0.1052378201424995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45229.20833333334</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>2023</v>
+      </c>
+      <c r="E46">
+        <v>13746</v>
+      </c>
+      <c r="F46">
+        <v>2145</v>
+      </c>
+      <c r="G46">
+        <v>0.156045395024007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45236.20833333334</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>2023</v>
+      </c>
+      <c r="E47">
+        <v>10882</v>
+      </c>
+      <c r="F47">
+        <v>1936</v>
+      </c>
+      <c r="G47">
+        <v>0.1779084727072229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45243.20833333334</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>2023</v>
+      </c>
+      <c r="E48">
+        <v>14944</v>
+      </c>
+      <c r="F48">
+        <v>1647</v>
+      </c>
+      <c r="G48">
+        <v>0.1102114561027837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45250.20833333334</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>2023</v>
+      </c>
+      <c r="E49">
+        <v>16436</v>
+      </c>
+      <c r="F49">
+        <v>2240</v>
+      </c>
+      <c r="G49">
+        <v>0.1362862010221465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45257.20833333334</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>2023</v>
+      </c>
+      <c r="E50">
+        <v>6467</v>
+      </c>
+      <c r="F50">
+        <v>856</v>
+      </c>
+      <c r="G50">
+        <v>0.1323643111179836</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1089,13 +1595,13 @@
         <v>2022</v>
       </c>
       <c r="E2">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1112,13 +1618,13 @@
         <v>2023</v>
       </c>
       <c r="E3">
-        <v>1334</v>
+        <v>1181</v>
       </c>
       <c r="F3">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="G3">
-        <v>0.2586206896551724</v>
+        <v>0.2218458933107536</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1135,13 +1641,13 @@
         <v>2023</v>
       </c>
       <c r="E4">
-        <v>2673</v>
+        <v>2268</v>
       </c>
       <c r="F4">
-        <v>633</v>
+        <v>339</v>
       </c>
       <c r="G4">
-        <v>0.2368125701459035</v>
+        <v>0.1494708994708995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1158,13 +1664,13 @@
         <v>2023</v>
       </c>
       <c r="E5">
-        <v>2073</v>
+        <v>1900</v>
       </c>
       <c r="F5">
-        <v>585</v>
+        <v>424</v>
       </c>
       <c r="G5">
-        <v>0.2821997105643994</v>
+        <v>0.2231578947368421</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1181,13 +1687,13 @@
         <v>2023</v>
       </c>
       <c r="E6">
-        <v>3076</v>
+        <v>2907</v>
       </c>
       <c r="F6">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="G6">
-        <v>0.1014304291287386</v>
+        <v>0.07430340557275542</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1204,13 +1710,13 @@
         <v>2023</v>
       </c>
       <c r="E7">
-        <v>2279</v>
+        <v>1797</v>
       </c>
       <c r="F7">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="G7">
-        <v>0.2088635366388767</v>
+        <v>0.1981079577072899</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1227,13 +1733,13 @@
         <v>2023</v>
       </c>
       <c r="E8">
-        <v>3422</v>
+        <v>2818</v>
       </c>
       <c r="F8">
-        <v>860</v>
+        <v>599</v>
       </c>
       <c r="G8">
-        <v>0.2513150204558738</v>
+        <v>0.2125621007806955</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1250,13 +1756,13 @@
         <v>2023</v>
       </c>
       <c r="E9">
-        <v>5529</v>
+        <v>3444</v>
       </c>
       <c r="F9">
-        <v>2873</v>
+        <v>1521</v>
       </c>
       <c r="G9">
-        <v>0.5196238017724725</v>
+        <v>0.4416376306620209</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1273,13 +1779,13 @@
         <v>2023</v>
       </c>
       <c r="E10">
-        <v>3918</v>
+        <v>2927</v>
       </c>
       <c r="F10">
-        <v>748</v>
+        <v>450</v>
       </c>
       <c r="G10">
-        <v>0.190913731495661</v>
+        <v>0.1537410317731466</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1296,13 +1802,13 @@
         <v>2023</v>
       </c>
       <c r="E11">
-        <v>1795</v>
+        <v>1475</v>
       </c>
       <c r="F11">
-        <v>452</v>
+        <v>286</v>
       </c>
       <c r="G11">
-        <v>0.2518105849582173</v>
+        <v>0.1938983050847458</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1319,13 +1825,13 @@
         <v>2023</v>
       </c>
       <c r="E12">
-        <v>5493</v>
+        <v>3334</v>
       </c>
       <c r="F12">
-        <v>836</v>
+        <v>441</v>
       </c>
       <c r="G12">
-        <v>0.1521937010740943</v>
+        <v>0.1322735452909418</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1342,13 +1848,13 @@
         <v>2023</v>
       </c>
       <c r="E13">
-        <v>3790</v>
+        <v>3153</v>
       </c>
       <c r="F13">
-        <v>974</v>
+        <v>701</v>
       </c>
       <c r="G13">
-        <v>0.2569920844327177</v>
+        <v>0.2223279416428798</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1365,13 +1871,13 @@
         <v>2023</v>
       </c>
       <c r="E14">
-        <v>3174</v>
+        <v>3004</v>
       </c>
       <c r="F14">
-        <v>794</v>
+        <v>706</v>
       </c>
       <c r="G14">
-        <v>0.2501575299306869</v>
+        <v>0.2350199733688415</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1388,13 +1894,13 @@
         <v>2023</v>
       </c>
       <c r="E15">
-        <v>5068</v>
+        <v>4356</v>
       </c>
       <c r="F15">
-        <v>1769</v>
+        <v>1533</v>
       </c>
       <c r="G15">
-        <v>0.3490528808208366</v>
+        <v>0.3519283746556474</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1411,13 +1917,13 @@
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>5531</v>
+        <v>4799</v>
       </c>
       <c r="F16">
-        <v>1619</v>
+        <v>1359</v>
       </c>
       <c r="G16">
-        <v>0.2927137949737841</v>
+        <v>0.2831839966659721</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1434,13 +1940,13 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>3997</v>
+        <v>3604</v>
       </c>
       <c r="F17">
-        <v>714</v>
+        <v>554</v>
       </c>
       <c r="G17">
-        <v>0.1786339754816112</v>
+        <v>0.1537180910099889</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1457,13 +1963,13 @@
         <v>2023</v>
       </c>
       <c r="E18">
-        <v>4106</v>
+        <v>3684</v>
       </c>
       <c r="F18">
-        <v>1041</v>
+        <v>852</v>
       </c>
       <c r="G18">
-        <v>0.2535314174378958</v>
+        <v>0.2312703583061889</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1480,13 +1986,13 @@
         <v>2023</v>
       </c>
       <c r="E19">
-        <v>4713</v>
+        <v>4457</v>
       </c>
       <c r="F19">
-        <v>855</v>
+        <v>715</v>
       </c>
       <c r="G19">
-        <v>0.181413112667091</v>
+        <v>0.1604218083912946</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1503,13 +2009,13 @@
         <v>2023</v>
       </c>
       <c r="E20">
-        <v>4076</v>
+        <v>3232</v>
       </c>
       <c r="F20">
-        <v>748</v>
+        <v>541</v>
       </c>
       <c r="G20">
-        <v>0.18351324828263</v>
+        <v>0.1673886138613861</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1526,13 +2032,13 @@
         <v>2023</v>
       </c>
       <c r="E21">
-        <v>2770</v>
+        <v>2344</v>
       </c>
       <c r="F21">
-        <v>527</v>
+        <v>316</v>
       </c>
       <c r="G21">
-        <v>0.1902527075812274</v>
+        <v>0.1348122866894198</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1549,13 +2055,13 @@
         <v>2023</v>
       </c>
       <c r="E22">
-        <v>3359</v>
+        <v>2736</v>
       </c>
       <c r="F22">
-        <v>742</v>
+        <v>287</v>
       </c>
       <c r="G22">
-        <v>0.2208990771062816</v>
+        <v>0.1048976608187134</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1572,13 +2078,13 @@
         <v>2023</v>
       </c>
       <c r="E23">
-        <v>1777</v>
+        <v>1447</v>
       </c>
       <c r="F23">
-        <v>481</v>
+        <v>211</v>
       </c>
       <c r="G23">
-        <v>0.2706809229037704</v>
+        <v>0.1458189357290947</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1595,13 +2101,13 @@
         <v>2023</v>
       </c>
       <c r="E24">
-        <v>4110</v>
+        <v>3590</v>
       </c>
       <c r="F24">
-        <v>821</v>
+        <v>568</v>
       </c>
       <c r="G24">
-        <v>0.1997566909975669</v>
+        <v>0.1582172701949861</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1618,13 +2124,13 @@
         <v>2023</v>
       </c>
       <c r="E25">
-        <v>2228</v>
+        <v>1855</v>
       </c>
       <c r="F25">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="G25">
-        <v>0.151705565529623</v>
+        <v>0.1493261455525607</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1641,13 +2147,13 @@
         <v>2023</v>
       </c>
       <c r="E26">
-        <v>2872</v>
+        <v>2621</v>
       </c>
       <c r="F26">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G26">
-        <v>0.06162952646239554</v>
+        <v>0.06219000381533766</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1664,13 +2170,13 @@
         <v>2023</v>
       </c>
       <c r="E27">
-        <v>1977</v>
+        <v>1845</v>
       </c>
       <c r="F27">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G27">
-        <v>0.1532625189681335</v>
+        <v>0.1588075880758807</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1687,13 +2193,519 @@
         <v>2023</v>
       </c>
       <c r="E28">
-        <v>1455</v>
+        <v>1752</v>
       </c>
       <c r="F28">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="G28">
-        <v>0.1821305841924399</v>
+        <v>0.1649543378995434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45110.20833333334</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2023</v>
+      </c>
+      <c r="E29">
+        <v>1425</v>
+      </c>
+      <c r="F29">
+        <v>180</v>
+      </c>
+      <c r="G29">
+        <v>0.1263157894736842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45117.20833333334</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>2023</v>
+      </c>
+      <c r="E30">
+        <v>1953</v>
+      </c>
+      <c r="F30">
+        <v>184</v>
+      </c>
+      <c r="G30">
+        <v>0.09421402969790067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45124.20833333334</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>2023</v>
+      </c>
+      <c r="E31">
+        <v>2682</v>
+      </c>
+      <c r="F31">
+        <v>742</v>
+      </c>
+      <c r="G31">
+        <v>0.2766592095451156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45131.20833333334</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>2023</v>
+      </c>
+      <c r="E32">
+        <v>5208</v>
+      </c>
+      <c r="F32">
+        <v>876</v>
+      </c>
+      <c r="G32">
+        <v>0.1682027649769585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45138.20833333334</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2023</v>
+      </c>
+      <c r="E33">
+        <v>1656</v>
+      </c>
+      <c r="F33">
+        <v>339</v>
+      </c>
+      <c r="G33">
+        <v>0.2047101449275362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45145.20833333334</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>2023</v>
+      </c>
+      <c r="E34">
+        <v>2643</v>
+      </c>
+      <c r="F34">
+        <v>537</v>
+      </c>
+      <c r="G34">
+        <v>0.2031782065834279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45152.20833333334</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>2023</v>
+      </c>
+      <c r="E35">
+        <v>2115</v>
+      </c>
+      <c r="F35">
+        <v>483</v>
+      </c>
+      <c r="G35">
+        <v>0.2283687943262411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45159.20833333334</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>2023</v>
+      </c>
+      <c r="E36">
+        <v>1718</v>
+      </c>
+      <c r="F36">
+        <v>183</v>
+      </c>
+      <c r="G36">
+        <v>0.1065192083818393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45166.20833333334</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>2023</v>
+      </c>
+      <c r="E37">
+        <v>1892</v>
+      </c>
+      <c r="F37">
+        <v>549</v>
+      </c>
+      <c r="G37">
+        <v>0.290169133192389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45173.20833333334</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>2023</v>
+      </c>
+      <c r="E38">
+        <v>12390</v>
+      </c>
+      <c r="F38">
+        <v>1396</v>
+      </c>
+      <c r="G38">
+        <v>0.1126715092816788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45180.20833333334</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>2023</v>
+      </c>
+      <c r="E39">
+        <v>3602</v>
+      </c>
+      <c r="F39">
+        <v>880</v>
+      </c>
+      <c r="G39">
+        <v>0.2443087173792338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45187.20833333334</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>2023</v>
+      </c>
+      <c r="E40">
+        <v>2264</v>
+      </c>
+      <c r="F40">
+        <v>516</v>
+      </c>
+      <c r="G40">
+        <v>0.2279151943462898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45194.20833333334</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>2023</v>
+      </c>
+      <c r="E41">
+        <v>3466</v>
+      </c>
+      <c r="F41">
+        <v>440</v>
+      </c>
+      <c r="G41">
+        <v>0.1269474899019042</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45201.20833333334</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>2023</v>
+      </c>
+      <c r="E42">
+        <v>3135</v>
+      </c>
+      <c r="F42">
+        <v>575</v>
+      </c>
+      <c r="G42">
+        <v>0.1834130781499203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45208.20833333334</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>2023</v>
+      </c>
+      <c r="E43">
+        <v>1979</v>
+      </c>
+      <c r="F43">
+        <v>288</v>
+      </c>
+      <c r="G43">
+        <v>0.1455280444669025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45215.20833333334</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>2023</v>
+      </c>
+      <c r="E44">
+        <v>2921</v>
+      </c>
+      <c r="F44">
+        <v>354</v>
+      </c>
+      <c r="G44">
+        <v>0.1211913728175282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45222.20833333334</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>2023</v>
+      </c>
+      <c r="E45">
+        <v>3448</v>
+      </c>
+      <c r="F45">
+        <v>785</v>
+      </c>
+      <c r="G45">
+        <v>0.2276682134570766</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45229.20833333334</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>2023</v>
+      </c>
+      <c r="E46">
+        <v>7701</v>
+      </c>
+      <c r="F46">
+        <v>2186</v>
+      </c>
+      <c r="G46">
+        <v>0.2838592390598624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45236.20833333334</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>2023</v>
+      </c>
+      <c r="E47">
+        <v>5279</v>
+      </c>
+      <c r="F47">
+        <v>1120</v>
+      </c>
+      <c r="G47">
+        <v>0.2121613942034476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45243.20833333334</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>2023</v>
+      </c>
+      <c r="E48">
+        <v>7021</v>
+      </c>
+      <c r="F48">
+        <v>1406</v>
+      </c>
+      <c r="G48">
+        <v>0.2002563737359351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45250.20833333334</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>2023</v>
+      </c>
+      <c r="E49">
+        <v>4130</v>
+      </c>
+      <c r="F49">
+        <v>1082</v>
+      </c>
+      <c r="G49">
+        <v>0.2619854721549637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45257.20833333334</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>2023</v>
+      </c>
+      <c r="E50">
+        <v>1254</v>
+      </c>
+      <c r="F50">
+        <v>217</v>
+      </c>
+      <c r="G50">
+        <v>0.1730462519936204</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +2715,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1743,13 +2755,13 @@
         <v>2022</v>
       </c>
       <c r="E2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>0.2292682926829268</v>
+        <v>0.2535211267605634</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1766,13 +2778,13 @@
         <v>2023</v>
       </c>
       <c r="E3">
-        <v>2220</v>
+        <v>2285</v>
       </c>
       <c r="F3">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G3">
-        <v>0.1972972972972973</v>
+        <v>0.1973741794310722</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1789,13 +2801,13 @@
         <v>2023</v>
       </c>
       <c r="E4">
-        <v>3912</v>
+        <v>3705</v>
       </c>
       <c r="F4">
-        <v>753</v>
+        <v>434</v>
       </c>
       <c r="G4">
-        <v>0.1924846625766871</v>
+        <v>0.1171390013495277</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1812,13 +2824,13 @@
         <v>2023</v>
       </c>
       <c r="E5">
-        <v>4626</v>
+        <v>4636</v>
       </c>
       <c r="F5">
-        <v>1688</v>
+        <v>1702</v>
       </c>
       <c r="G5">
-        <v>0.3648940769563337</v>
+        <v>0.3671268334771355</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1835,13 +2847,13 @@
         <v>2023</v>
       </c>
       <c r="E6">
-        <v>7821</v>
+        <v>7691</v>
       </c>
       <c r="F6">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="G6">
-        <v>0.1091931978007927</v>
+        <v>0.111949031335327</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1858,13 +2870,13 @@
         <v>2023</v>
       </c>
       <c r="E7">
-        <v>4181</v>
+        <v>4412</v>
       </c>
       <c r="F7">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="G7">
-        <v>0.105237981344176</v>
+        <v>0.1053943789664551</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1881,13 +2893,13 @@
         <v>2023</v>
       </c>
       <c r="E8">
-        <v>2705</v>
+        <v>2800</v>
       </c>
       <c r="F8">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G8">
-        <v>0.1482439926062847</v>
+        <v>0.1439285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1904,13 +2916,13 @@
         <v>2023</v>
       </c>
       <c r="E9">
-        <v>2308</v>
+        <v>2404</v>
       </c>
       <c r="F9">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G9">
-        <v>0.1486135181975737</v>
+        <v>0.1451747088186356</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1927,13 +2939,13 @@
         <v>2023</v>
       </c>
       <c r="E10">
-        <v>1925</v>
+        <v>2075</v>
       </c>
       <c r="F10">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G10">
-        <v>0.1267532467532468</v>
+        <v>0.1224096385542169</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1950,13 +2962,13 @@
         <v>2023</v>
       </c>
       <c r="E11">
-        <v>2789</v>
+        <v>2767</v>
       </c>
       <c r="F11">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="G11">
-        <v>0.1358910003585515</v>
+        <v>0.1402240693892302</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1973,13 +2985,13 @@
         <v>2023</v>
       </c>
       <c r="E12">
-        <v>2282</v>
+        <v>2597</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G12">
-        <v>0.1016652059596845</v>
+        <v>0.09395456295725838</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1996,13 +3008,13 @@
         <v>2023</v>
       </c>
       <c r="E13">
-        <v>2646</v>
+        <v>2932</v>
       </c>
       <c r="F13">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G13">
-        <v>0.1073318216175359</v>
+        <v>0.09822646657571624</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2019,13 +3031,13 @@
         <v>2023</v>
       </c>
       <c r="E14">
-        <v>4343</v>
+        <v>4519</v>
       </c>
       <c r="F14">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G14">
-        <v>0.1059175685010361</v>
+        <v>0.1028988714317327</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2042,13 +3054,13 @@
         <v>2023</v>
       </c>
       <c r="E15">
-        <v>4182</v>
+        <v>4155</v>
       </c>
       <c r="F15">
-        <v>548</v>
+        <v>598</v>
       </c>
       <c r="G15">
-        <v>0.131037780966045</v>
+        <v>0.1439229843561974</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2065,13 +3077,13 @@
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>5432</v>
+        <v>5494</v>
       </c>
       <c r="F16">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G16">
-        <v>0.09186303387334316</v>
+        <v>0.08973425555151074</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2088,13 +3100,13 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>9214</v>
+        <v>10485</v>
       </c>
       <c r="F17">
-        <v>1086</v>
+        <v>1601</v>
       </c>
       <c r="G17">
-        <v>0.1178641198176688</v>
+        <v>0.1526943252265141</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2111,13 +3123,13 @@
         <v>2023</v>
       </c>
       <c r="E18">
-        <v>13072</v>
+        <v>14200</v>
       </c>
       <c r="F18">
-        <v>2508</v>
+        <v>2529</v>
       </c>
       <c r="G18">
-        <v>0.1918604651162791</v>
+        <v>0.1780985915492958</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2134,13 +3146,13 @@
         <v>2023</v>
       </c>
       <c r="E19">
-        <v>14471</v>
+        <v>15240</v>
       </c>
       <c r="F19">
-        <v>1373</v>
+        <v>1347</v>
       </c>
       <c r="G19">
-        <v>0.09487941400041462</v>
+        <v>0.08838582677165355</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2157,13 +3169,13 @@
         <v>2023</v>
       </c>
       <c r="E20">
-        <v>7639</v>
+        <v>7960</v>
       </c>
       <c r="F20">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="G20">
-        <v>0.08692237203822489</v>
+        <v>0.085678391959799</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2180,13 +3192,13 @@
         <v>2023</v>
       </c>
       <c r="E21">
-        <v>4068</v>
+        <v>4458</v>
       </c>
       <c r="F21">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="G21">
-        <v>0.09709931170108162</v>
+        <v>0.0955585464333782</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2203,13 +3215,13 @@
         <v>2023</v>
       </c>
       <c r="E22">
-        <v>2908</v>
+        <v>3259</v>
       </c>
       <c r="F22">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="G22">
-        <v>0.1984181568088033</v>
+        <v>0.1795029150046026</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2226,13 +3238,13 @@
         <v>2023</v>
       </c>
       <c r="E23">
-        <v>2278</v>
+        <v>2415</v>
       </c>
       <c r="F23">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G23">
-        <v>0.1338893766461809</v>
+        <v>0.1283643892339545</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2249,13 +3261,13 @@
         <v>2023</v>
       </c>
       <c r="E24">
-        <v>3341</v>
+        <v>3662</v>
       </c>
       <c r="F24">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G24">
-        <v>0.1155342711762945</v>
+        <v>0.1064991807755325</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2272,13 +3284,13 @@
         <v>2023</v>
       </c>
       <c r="E25">
-        <v>3431</v>
+        <v>3749</v>
       </c>
       <c r="F25">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G25">
-        <v>0.1107548819586126</v>
+        <v>0.1053614297145906</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2295,13 +3307,13 @@
         <v>2023</v>
       </c>
       <c r="E26">
-        <v>3189</v>
+        <v>3357</v>
       </c>
       <c r="F26">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G26">
-        <v>0.1072436500470367</v>
+        <v>0.1033661006851355</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2318,13 +3330,13 @@
         <v>2023</v>
       </c>
       <c r="E27">
-        <v>4729</v>
+        <v>4824</v>
       </c>
       <c r="F27">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G27">
-        <v>0.07654895326707549</v>
+        <v>0.074212271973466</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2341,13 +3353,519 @@
         <v>2023</v>
       </c>
       <c r="E28">
-        <v>2645</v>
+        <v>4237</v>
       </c>
       <c r="F28">
+        <v>333</v>
+      </c>
+      <c r="G28">
+        <v>0.07859334434741562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45110.20833333334</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2023</v>
+      </c>
+      <c r="E29">
+        <v>4431</v>
+      </c>
+      <c r="F29">
+        <v>344</v>
+      </c>
+      <c r="G29">
+        <v>0.07763484540735725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45117.20833333334</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>2023</v>
+      </c>
+      <c r="E30">
+        <v>2752</v>
+      </c>
+      <c r="F30">
+        <v>352</v>
+      </c>
+      <c r="G30">
+        <v>0.1279069767441861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45124.20833333334</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>2023</v>
+      </c>
+      <c r="E31">
+        <v>2246</v>
+      </c>
+      <c r="F31">
+        <v>315</v>
+      </c>
+      <c r="G31">
+        <v>0.1402493321460374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45131.20833333334</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>2023</v>
+      </c>
+      <c r="E32">
+        <v>2654</v>
+      </c>
+      <c r="F32">
+        <v>428</v>
+      </c>
+      <c r="G32">
+        <v>0.161266013564431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45138.20833333334</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2023</v>
+      </c>
+      <c r="E33">
+        <v>3255</v>
+      </c>
+      <c r="F33">
+        <v>407</v>
+      </c>
+      <c r="G33">
+        <v>0.1250384024577573</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45145.20833333334</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>2023</v>
+      </c>
+      <c r="E34">
+        <v>2316</v>
+      </c>
+      <c r="F34">
         <v>241</v>
       </c>
-      <c r="G28">
-        <v>0.09111531190926277</v>
+      <c r="G34">
+        <v>0.1040587219343696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45152.20833333334</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>2023</v>
+      </c>
+      <c r="E35">
+        <v>3207</v>
+      </c>
+      <c r="F35">
+        <v>548</v>
+      </c>
+      <c r="G35">
+        <v>0.1708762082943561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45159.20833333334</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>2023</v>
+      </c>
+      <c r="E36">
+        <v>2504</v>
+      </c>
+      <c r="F36">
+        <v>292</v>
+      </c>
+      <c r="G36">
+        <v>0.1166134185303514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45166.20833333334</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>2023</v>
+      </c>
+      <c r="E37">
+        <v>2335</v>
+      </c>
+      <c r="F37">
+        <v>237</v>
+      </c>
+      <c r="G37">
+        <v>0.1014989293361884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45173.20833333334</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>2023</v>
+      </c>
+      <c r="E38">
+        <v>2537</v>
+      </c>
+      <c r="F38">
+        <v>253</v>
+      </c>
+      <c r="G38">
+        <v>0.09972408356326369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45180.20833333334</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>2023</v>
+      </c>
+      <c r="E39">
+        <v>2379</v>
+      </c>
+      <c r="F39">
+        <v>245</v>
+      </c>
+      <c r="G39">
+        <v>0.1029844472467423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45187.20833333334</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>2023</v>
+      </c>
+      <c r="E40">
+        <v>3527</v>
+      </c>
+      <c r="F40">
+        <v>450</v>
+      </c>
+      <c r="G40">
+        <v>0.127587184576127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45194.20833333334</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>2023</v>
+      </c>
+      <c r="E41">
+        <v>3154</v>
+      </c>
+      <c r="F41">
+        <v>411</v>
+      </c>
+      <c r="G41">
+        <v>0.1303107165504122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45201.20833333334</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>2023</v>
+      </c>
+      <c r="E42">
+        <v>3787</v>
+      </c>
+      <c r="F42">
+        <v>449</v>
+      </c>
+      <c r="G42">
+        <v>0.1185635067335622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45208.20833333334</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>2023</v>
+      </c>
+      <c r="E43">
+        <v>2791</v>
+      </c>
+      <c r="F43">
+        <v>306</v>
+      </c>
+      <c r="G43">
+        <v>0.1096381225367252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45215.20833333334</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>2023</v>
+      </c>
+      <c r="E44">
+        <v>3954</v>
+      </c>
+      <c r="F44">
+        <v>366</v>
+      </c>
+      <c r="G44">
+        <v>0.09256449165402124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45222.20833333334</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>2023</v>
+      </c>
+      <c r="E45">
+        <v>2850</v>
+      </c>
+      <c r="F45">
+        <v>207</v>
+      </c>
+      <c r="G45">
+        <v>0.07263157894736842</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45229.20833333334</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>2023</v>
+      </c>
+      <c r="E46">
+        <v>15853</v>
+      </c>
+      <c r="F46">
+        <v>2491</v>
+      </c>
+      <c r="G46">
+        <v>0.1571311423705292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45236.20833333334</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>2023</v>
+      </c>
+      <c r="E47">
+        <v>5885</v>
+      </c>
+      <c r="F47">
+        <v>686</v>
+      </c>
+      <c r="G47">
+        <v>0.1165675446049278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45243.20833333334</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>2023</v>
+      </c>
+      <c r="E48">
+        <v>6283</v>
+      </c>
+      <c r="F48">
+        <v>732</v>
+      </c>
+      <c r="G48">
+        <v>0.116504854368932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45250.20833333334</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>2023</v>
+      </c>
+      <c r="E49">
+        <v>36529</v>
+      </c>
+      <c r="F49">
+        <v>8352</v>
+      </c>
+      <c r="G49">
+        <v>0.2286402584248132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45257.20833333334</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>2023</v>
+      </c>
+      <c r="E50">
+        <v>2311</v>
+      </c>
+      <c r="F50">
+        <v>261</v>
+      </c>
+      <c r="G50">
+        <v>0.1129381220250974</v>
       </c>
     </row>
   </sheetData>
